--- a/GATHUMBI.xlsx
+++ b/GATHUMBI.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14295" windowHeight="5595" firstSheet="75" activeTab="81"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14295" windowHeight="5595" firstSheet="77" activeTab="81"/>
   </bookViews>
   <sheets>
     <sheet name="APRIL" sheetId="8" r:id="rId1"/>
@@ -93,12 +98,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'JUNE '!#REF!,'JUNE '!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="358">
   <si>
     <t>Name</t>
   </si>
@@ -1201,11 +1206,14 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
   </si>
+  <si>
+    <t>PHILIPH VACCATED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -1926,7 +1934,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1961,7 +1969,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53911,10 +53919,10 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54093,11 +54101,11 @@
         <v>3750</v>
       </c>
       <c r="G9" s="120">
-        <v>1800</v>
+        <v>1250</v>
       </c>
       <c r="H9" s="121">
         <f t="shared" si="1"/>
-        <v>1950</v>
+        <v>2500</v>
       </c>
       <c r="I9" s="116"/>
     </row>
@@ -54288,7 +54296,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="149" t="s">
         <v>68</v>
       </c>
@@ -54310,15 +54318,15 @@
       </c>
       <c r="G17" s="144">
         <f t="shared" si="2"/>
-        <v>4600</v>
+        <v>4050</v>
       </c>
       <c r="H17" s="152">
         <f t="shared" si="2"/>
-        <v>31050</v>
+        <v>31600</v>
       </c>
       <c r="I17" s="116"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="129"/>
       <c r="C18" s="129"/>
       <c r="D18" s="129"/>
@@ -54328,7 +54336,7 @@
       <c r="H18" s="129"/>
       <c r="I18" s="129"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="109" t="s">
         <v>62</v>
       </c>
@@ -54341,7 +54349,7 @@
       <c r="I19" s="69"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="110" t="s">
         <v>116</v>
       </c>
@@ -54355,7 +54363,7 @@
       <c r="H20" s="110"/>
       <c r="J20" s="110"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="56" t="s">
         <v>63</v>
       </c>
@@ -54382,7 +54390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>182</v>
       </c>
@@ -54398,12 +54406,12 @@
       </c>
       <c r="H22" s="93">
         <f>G17</f>
-        <v>4600</v>
+        <v>4050</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>79</v>
       </c>
@@ -54424,7 +54432,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>344</v>
       </c>
@@ -54437,7 +54445,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>66</v>
       </c>
@@ -54462,7 +54470,7 @@
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="135" t="s">
         <v>67</v>
       </c>
@@ -54477,16 +54485,21 @@
       <c r="I26" s="137"/>
       <c r="J26" s="135"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="58" t="s">
+        <v>357</v>
+      </c>
       <c r="C27" s="157"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10">
+        <v>10000</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="58"/>
       <c r="H27" s="157"/>
       <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="81"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="10"/>
@@ -54497,7 +54510,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="153"/>
@@ -54508,7 +54521,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -54519,7 +54532,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="145" t="s">
         <v>68</v>
       </c>
@@ -54530,18 +54543,18 @@
       </c>
       <c r="E31" s="146">
         <f>SUM(E27:E30)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F31" s="146">
         <f>D31-E31</f>
-        <v>27108.600000000006</v>
+        <v>17108.600000000006</v>
       </c>
       <c r="G31" s="145" t="s">
         <v>68</v>
       </c>
       <c r="H31" s="146">
         <f>H22+H23-I25</f>
-        <v>8558.5999999999985</v>
+        <v>8008.5999999999985</v>
       </c>
       <c r="I31" s="146">
         <f>SUM(I27:I30)</f>
@@ -54549,7 +54562,7 @@
       </c>
       <c r="J31" s="146">
         <f>H31-I31</f>
-        <v>8558.5999999999985</v>
+        <v>8008.5999999999985</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -54604,10 +54617,10 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54809,10 +54822,13 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="G9" s="120"/>
+      <c r="G9" s="120">
+        <f>700+550</f>
+        <v>1250</v>
+      </c>
       <c r="H9" s="121">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="I9" s="116"/>
       <c r="J9" s="9"/>
@@ -54822,27 +54838,20 @@
       <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="174" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="156">
-        <v>2500</v>
-      </c>
-      <c r="D10" s="118">
-        <f>'NOVEMBER 21'!H10</f>
-        <v>12500</v>
-      </c>
-      <c r="E10" s="118">
-        <v>2500</v>
-      </c>
+      <c r="B10" s="172" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="156"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="154">
         <f t="shared" si="0"/>
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="G10" s="120"/>
       <c r="H10" s="121">
         <f t="shared" si="1"/>
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="I10" s="116"/>
       <c r="J10" s="9"/>
@@ -55005,49 +55014,51 @@
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="G16" s="120"/>
+      <c r="G16" s="120">
+        <v>800</v>
+      </c>
       <c r="H16" s="121">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="149" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="35">
         <f t="shared" ref="C17:H17" si="2">SUM(C5:C16)</f>
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="D17" s="118">
         <f>SUM(D5:D16)</f>
-        <v>29100</v>
+        <v>16600</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="2"/>
-        <v>10300</v>
+        <v>7800</v>
       </c>
       <c r="F17" s="150">
         <f t="shared" si="2"/>
-        <v>46900</v>
+        <v>29400</v>
       </c>
       <c r="G17" s="144">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="H17" s="152">
         <f t="shared" si="2"/>
-        <v>46900</v>
+        <v>27350</v>
       </c>
       <c r="I17" s="116"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="129"/>
       <c r="C18" s="129"/>
@@ -55060,7 +55071,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="109" t="s">
         <v>62</v>
@@ -55075,7 +55086,7 @@
       <c r="J19" s="36"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="110" t="s">
         <v>116</v>
@@ -55092,7 +55103,7 @@
       <c r="J20" s="110"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="56" t="s">
         <v>63</v>
@@ -55121,7 +55132,7 @@
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>248</v>
@@ -55129,7 +55140,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="94">
         <f>E17</f>
-        <v>10300</v>
+        <v>7800</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -55138,13 +55149,13 @@
       </c>
       <c r="H22" s="93">
         <f>G17</f>
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>79</v>
@@ -55152,7 +55163,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="94">
         <f>'NOVEMBER 21'!F31</f>
-        <v>27108.600000000006</v>
+        <v>17108.600000000006</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
@@ -55161,13 +55172,13 @@
       </c>
       <c r="H23" s="93">
         <f>'NOVEMBER 21'!J31</f>
-        <v>8558.5999999999985</v>
+        <v>8008.5999999999985</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>344</v>
@@ -55182,7 +55193,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>66</v>
@@ -55193,7 +55204,7 @@
       </c>
       <c r="E25" s="94">
         <f>D25*D22</f>
-        <v>721.00000000000011</v>
+        <v>546</v>
       </c>
       <c r="F25" s="94"/>
       <c r="G25" s="10" t="s">
@@ -55204,12 +55215,12 @@
       </c>
       <c r="I25" s="94">
         <f>H25*D22</f>
-        <v>721.00000000000011</v>
+        <v>546</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="135" t="s">
         <v>67</v>
@@ -55225,12 +55236,8 @@
       <c r="I26" s="137"/>
       <c r="J26" s="135"/>
       <c r="K26" s="9"/>
-      <c r="L26">
-        <f>2500/30</f>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="58"/>
       <c r="C27" s="157"/>
@@ -55242,12 +55249,8 @@
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="9"/>
-      <c r="L27">
-        <f>L26*15</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
@@ -55260,7 +55263,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -55273,7 +55276,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -55286,7 +55289,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="145" t="s">
         <v>68</v>
@@ -55294,7 +55297,7 @@
       <c r="C31" s="145"/>
       <c r="D31" s="146">
         <f>D22+D23+D24-E25</f>
-        <v>36687.600000000006</v>
+        <v>24362.600000000006</v>
       </c>
       <c r="E31" s="146">
         <f>SUM(E27:E30)</f>
@@ -55302,14 +55305,14 @@
       </c>
       <c r="F31" s="146">
         <f>D31-E31</f>
-        <v>36687.600000000006</v>
+        <v>24362.600000000006</v>
       </c>
       <c r="G31" s="145" t="s">
         <v>68</v>
       </c>
       <c r="H31" s="146">
         <f>H22+H23-I25</f>
-        <v>7837.5999999999985</v>
+        <v>9512.5999999999985</v>
       </c>
       <c r="I31" s="146">
         <f>SUM(I27:I30)</f>
@@ -55317,11 +55320,11 @@
       </c>
       <c r="J31" s="146">
         <f>H31-I31</f>
-        <v>7837.5999999999985</v>
+        <v>9512.5999999999985</v>
       </c>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
